--- a/assets/uploads/imports/siswa.xlsx
+++ b/assets/uploads/imports/siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lulus_bareng\assets\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kelulusan\assets\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3256EB4-0F8D-47AA-9BFE-66D46E620A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF0A9B-76B8-4597-845D-1AB5F9A9FA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EECBEA9-EA3A-4539-AC53-3E15F0FB206F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>201-210-015</t>
   </si>
@@ -139,6 +139,39 @@
   </si>
   <si>
     <t>2001-jun-17</t>
+  </si>
+  <si>
+    <t>Rian</t>
+  </si>
+  <si>
+    <t>Algi</t>
+  </si>
+  <si>
+    <t>Robi</t>
+  </si>
+  <si>
+    <t>Hanum</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Alghi</t>
+  </si>
+  <si>
+    <t>Adon</t>
+  </si>
+  <si>
+    <t>Rahmat</t>
+  </si>
+  <si>
+    <t>Khotamar</t>
+  </si>
+  <si>
+    <t>Diki</t>
   </si>
 </sst>
 </file>
@@ -529,15 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476ED21A-6B7D-4521-AD64-E4001A133C36}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,7 +615,7 @@
         <v>3219854</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -607,7 +644,7 @@
         <v>3219855</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -636,7 +673,7 @@
         <v>3219856</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -665,7 +702,7 @@
         <v>3219857</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -684,6 +721,9 @@
       </c>
       <c r="I5" t="s">
         <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -694,7 +734,7 @@
         <v>3219858</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -713,6 +753,9 @@
       </c>
       <c r="I6" t="s">
         <v>6</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -723,7 +766,7 @@
         <v>3219859</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -742,6 +785,9 @@
       </c>
       <c r="I7" t="s">
         <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -752,7 +798,7 @@
         <v>3219860</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -781,7 +827,7 @@
         <v>3219861</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -810,7 +856,7 @@
         <v>3219862</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -839,7 +885,7 @@
         <v>3219863</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -858,9 +904,6 @@
       </c>
       <c r="I11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -871,7 +914,7 @@
         <v>3219864</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -890,14 +933,6 @@
       </c>
       <c r="I12" t="s">
         <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K13" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
